--- a/요구사항 정의서.xlsx
+++ b/요구사항 정의서.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hanchaewoong\barun-homepage\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="58">
   <si>
     <t>요구사항 ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,43 +113,126 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>WEB-INDEX-02</t>
+  </si>
+  <si>
+    <t>WEB-INDEX-03</t>
+  </si>
+  <si>
+    <t>WEB-INDEX-05</t>
+  </si>
+  <si>
+    <t>팝업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>처음 웹 페이지에 접근 했을때 구성상태를 전체적으로 확인할 수 있는 팝업창 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품을 검색할 수 있는 검색창 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WEB-03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모바일페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 업체에서 상품을 제공하는 브랜드의 텍스트 형식 정보를 탭 형식으로 전환하며 확인할 수 있는 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 브랜드의 소개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬라이드 다운</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 보고있는 브랜드의 위치, 온라인 쇼핑몰의 주소로 바로 이동가능한 버튼 들이 있는 박스를 열어볼 수있는 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차적으로 지도이미지로 바로 위치 확인이 가능하고 클릭시 다음 지도페이지로 이동하여 위치 상세정보를 확인할 수 있는 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>온라인 쇼핑몰의 주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 브랜드의 위치 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOBILE-MAIN-02</t>
+  </si>
+  <si>
+    <t>MOBILE-MAIN-03</t>
+  </si>
+  <si>
+    <t>MOBILE-MAIN-04</t>
+  </si>
+  <si>
+    <t>상품 상세정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>터치시 아래로 펼쳐지는 드롭다운 형태의 메인/서브 내비게이션 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열1</t>
+  </si>
+  <si>
+    <t>열2</t>
+  </si>
+  <si>
+    <t>열3</t>
+  </si>
+  <si>
+    <t>열4</t>
+  </si>
+  <si>
+    <t>열5</t>
+  </si>
+  <si>
+    <t>열6</t>
+  </si>
+  <si>
+    <t>열7</t>
+  </si>
+  <si>
     <t>WEB-INDEX-01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>WEB-INDEX-02</t>
-  </si>
-  <si>
-    <t>WEB-INDEX-03</t>
-  </si>
-  <si>
-    <t>WEB-INDEX-04</t>
-  </si>
-  <si>
-    <t>WEB-SUB-01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WEB-INDEX-05</t>
-  </si>
-  <si>
-    <t>팝업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>처음 웹 페이지에 접근 했을때 구성상태를 전체적으로 확인할 수 있는 팝업창 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품을 검색할 수 있는 검색창 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WEB-03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모바일페이지</t>
+    <t>WEB-BRAND-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WEB-BRAND-02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WEB-BRAND-03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모바일 서브 페이지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -157,62 +240,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>탭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현재 업체에서 상품을 제공하는 브랜드의 텍스트 형식 정보를 탭 형식으로 전환하며 확인할 수 있는 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>각 브랜드의 소개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>슬라이드 다운</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WEB-SUB-02</t>
-  </si>
-  <si>
-    <t>현재 보고있는 브랜드의 위치, 온라인 쇼핑몰의 주소로 바로 이동가능한 버튼 들이 있는 박스를 열어볼 수있는 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WEB-SUB-03</t>
-  </si>
-  <si>
-    <t>지도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차적으로 지도이미지로 바로 위치 확인이 가능하고 클릭시 다음 지도페이지로 이동하여 위치 상세정보를 확인할 수 있는 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>온라인 쇼핑몰의 주소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>각 브랜드의 위치 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MOBILE-MAIN-02</t>
-  </si>
-  <si>
-    <t>MOBILE-MAIN-03</t>
-  </si>
-  <si>
-    <t>MOBILE-MAIN-04</t>
-  </si>
-  <si>
-    <t>상품 상세정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>터치시 아래로 펼쳐지는 드롭다운 형태의 메인/서브 내비게이션 기능</t>
+    <t>MOBILE-BRAND-01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -270,7 +298,35 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="9">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -281,6 +337,22 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="B2:H16" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="B2:H16"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="열1" dataDxfId="8"/>
+    <tableColumn id="2" name="열2" dataDxfId="7"/>
+    <tableColumn id="3" name="열3" dataDxfId="6"/>
+    <tableColumn id="4" name="열4" dataDxfId="5"/>
+    <tableColumn id="5" name="열5" dataDxfId="4"/>
+    <tableColumn id="6" name="열6" dataDxfId="3"/>
+    <tableColumn id="7" name="열7" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -546,10 +618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H15"/>
+  <dimension ref="B2:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -563,229 +635,261 @@
     <col min="8" max="8" width="12.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
+    <row r="4" spans="2:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="D4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="D6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="D7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="D8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="D6" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="F8" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="D7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="D9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="F9" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="66" x14ac:dyDescent="0.3">
       <c r="D10" s="1" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="D11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="D13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="D12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="D13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="33" x14ac:dyDescent="0.3">
       <c r="D14" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="D15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" s="1" t="s">
+      <c r="F15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="E15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>29</v>
+    <row r="16" spans="2:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="C16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>